--- a/translations/census_household_translate_welsh.xlsx
+++ b/translations/census_household_translate_welsh.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/dev/ONSdigital/eq-survey-runner-clean/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collisdigital/Projects/eq-translations/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1199,9 +1199,6 @@
     <t>last-name [answer guidance]</t>
   </si>
   <si>
-    <t>&lt;p&gt;Enter the current first, middle and last names of all the people who usually live here.&lt;/p&gt;&lt;p&gt;If you have not yet named your newborn, please enter ‘Baby’ for their first name and then enter their last name (surname).&lt;/p&gt;&lt;p&gt;Please also include household members who have requested a personal form.&lt;/p&gt;&lt;p&gt;Please also include the names of people staying with you temporarily who don’t have a usual address in the UK. This is so that we make sure we count everyone.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Include:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;People who usually live outside the UK who are staying in the UK for three months or more&lt;/li&gt;&lt;li&gt;People who work away from home within the UK  if this is their permanent or family home&lt;/li&gt;&lt;li&gt;Members of the Armed Forces if this is their permanent or family home&lt;/li&gt;&lt;li&gt;People who are temporarily outside the UK for less than 12 months&lt;/li&gt;&lt;li&gt;People staying temporarily who usually live in the UK but do not have another UK address, for example relatives, friends&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>last-name</t>
   </si>
   <si>
@@ -3236,9 +3233,6 @@
     <t>&lt;p&gt;Os nad ydych yn gweithio atebwch y cwestiynau sy'n weddill am eich prif swydd ddiwethaf.&lt;/p&gt;&lt;p&gt;Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Nodwch enwau cyntaf, enwau canol a chyfenwau presennol pawb sy'n byw yma fel arfer.&lt;/p&gt;&lt;p&gt;Os nad ydych wedi enwi'ch baban newydd eto, nodwch 'Baban' fel ei enw cyntaf ac yna nodwch ei gyfenw.&lt;/p&gt;&lt;p&gt;Dylech hefyd gynnwys aelodau o'r cartref sydd wedi gofyn am ffurflen bersonol.&lt;/p&gt;&lt;p&gt;Hefyd nodwch enwau pobl sy'n aros gyda chi dros dro nad oes ganddynt gyfeiriad arferol yn y DU. Y rheswm dros hyn yw er mwyn sicrhau ein bod yn cyfrif pawb.&lt;/p&gt;&lt;p&gt;Dylech gynnwys:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Pobl sydd fel arfer yn byw y tu allan i'r Deyrnas Unedig sy'n aros yma am dri mis neu fwy&lt;/li&gt;&lt;li&gt;Pobl sy'n gweithio oddi cartref yn y Deyrnas Unedig os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Aelodau o'r Lluoedd Arfog os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Pobl sydd y tu allan i'r Deyrnas Unedig dros dro am lai na 12 mis&lt;/li&gt;&lt;li&gt;Pobl sy'n aros dros dro sydd fel arfer yn byw yn y Deyrnas Unedig ond nad oes ganddynt gyfeiriad arall yn y Deyrnas Unedig, er enghraifft perthnasau, ffrindiau&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd. Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;/p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;/p&gt;</t>
   </si>
   <si>
@@ -3291,6 +3285,12 @@
   </si>
   <si>
     <t>visitors-interstitial</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Enter the current first, middle and last names of all the people who usually live here.&lt;/p&gt;&lt;p&gt;If you have not yet named your newborn, please enter ‘Baby’ for their first name and then enter their last name (surname).&lt;/p&gt;&lt;p&gt;Please also include household members who have requested a personal form.&lt;/p&gt;&lt;p&gt;Please also include the names of people staying with you temporarily who don’t have a usual address in the UK. This is so that we make sure we count everyone.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Include:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;People who usually live outside the UK who are staying in the UK for &lt;strong&gt;three months or more&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;People who work away from home within the UK  if this is their permanent or family home&lt;/li&gt;&lt;li&gt;Members of the Armed Forces if this is their permanent or family home&lt;/li&gt;&lt;li&gt;People who are temporarily outside the UK for &lt;strong&gt;less than 12 months&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;People staying temporarily who usually live in the UK but do not have another UK address, for example relatives, friends&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nodwch enwau cyntaf, enwau canol a chyfenwau presennol pawb sy’n byw yma fel arfer.&lt;/p&gt;&lt;p&gt;Os nad ydych wedi enwi’ch baban newydd eto, nodwch ‘Baban’ fel ei enw cyntaf ac yna nodwch ei gyfenw.&lt;/p&gt;&lt;p&gt;Dylech hefyd gynnwys aelodau o’r cartref sydd wedi gofyn am ffurflen bersonol.&lt;/p&gt;&lt;p&gt;Hefyd nodwch enwau pobl sy’n aros gyda chi dros dro nad oes ganddynt gyfeiriad arferol yn y DU. Y rheswm dros hyn yw er mwyn sicrhau ein bod yn cyfrif pawb.&lt;/p&gt;&lt;p&gt;Dylech gynnwys:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Pobl sydd fel arfer yn byw y tu allan i’r Deyrnas Unedig sy’n aros yma am &lt;strong&gt;dri mis neu fwy&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Pobl sy’n gweithio oddi cartref yn y Deyrnas Unedig os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Aelodau o’r Lluoedd Arfog os mai hwn yw eu cartref parhaol neu gartref y teulu&lt;/li&gt;&lt;li&gt;Pobl sydd y tu allan i’r Deyrnas Unedig dros dro am &lt;strong&gt;lai na 12 mis&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Pobl sy’n aros dros dro sydd fel arfer yn byw yn y Deyrnas Unedig ond nad oes ganddynt gyfeiriad arall yn y Deyrnas Unedig, er enghraifft perthnasau, ffrindiau&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -3646,15 +3646,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="C660" sqref="C660"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3698,7 +3698,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -3795,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3850,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3914,7 +3914,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3972,7 +3972,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3997,7 +3997,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4019,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4030,7 +4030,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4066,7 +4066,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
         <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4091,7 +4091,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4124,7 +4124,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,7 +4138,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4152,7 +4152,7 @@
         <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4166,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4188,7 +4188,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4210,7 +4210,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,7 +4221,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,7 +4232,7 @@
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
         <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4274,7 +4274,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -4285,7 +4285,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4307,7 +4307,7 @@
         <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -4318,7 +4318,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4354,7 +4354,7 @@
         <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4365,7 +4365,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4390,7 +4390,7 @@
         <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>98</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>99</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4434,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4448,7 +4448,7 @@
         <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
         <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4492,7 +4492,7 @@
         <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4512,7 +4512,7 @@
         <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4523,7 +4523,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,7 +4554,7 @@
         <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="240" x14ac:dyDescent="0.2">
@@ -4576,7 +4576,7 @@
         <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4587,7 +4587,7 @@
         <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4598,7 +4598,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
         <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4651,7 +4651,7 @@
         <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -4698,7 +4698,7 @@
         <v>132</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4709,7 +4709,7 @@
         <v>134</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4720,7 +4720,7 @@
         <v>136</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
         <v>28</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -4756,7 +4756,7 @@
         <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>142</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4800,7 +4800,7 @@
         <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>146</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4822,7 +4822,7 @@
         <v>147</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>148</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>150</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4866,7 +4866,7 @@
         <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4877,7 +4877,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>116</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>144</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4930,7 +4930,7 @@
         <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4941,7 +4941,7 @@
         <v>146</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4952,7 +4952,7 @@
         <v>147</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4963,7 +4963,7 @@
         <v>148</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>149</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>150</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
         <v>151</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -5021,7 +5021,7 @@
         <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -5035,7 +5035,7 @@
         <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>160</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5057,7 +5057,7 @@
         <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5068,7 +5068,7 @@
         <v>162</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5090,7 +5090,7 @@
         <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5101,7 +5101,7 @@
         <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -5112,7 +5112,7 @@
         <v>168</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5123,7 +5123,7 @@
         <v>169</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
         <v>170</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
         <v>172</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>173</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5178,7 +5178,7 @@
         <v>174</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5189,7 +5189,7 @@
         <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,7 +5200,7 @@
         <v>176</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,7 +5211,7 @@
         <v>177</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,7 +5222,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>179</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,7 +5244,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -5266,7 +5266,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -5277,7 +5277,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>165</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
         <v>166</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>187</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5330,7 +5330,7 @@
         <v>188</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
         <v>189</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5352,7 +5352,7 @@
         <v>190</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -5363,7 +5363,7 @@
         <v>191</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
         <v>173</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5385,7 +5385,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>192</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>176</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
         <v>177</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -5429,7 +5429,7 @@
         <v>178</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -5440,7 +5440,7 @@
         <v>179</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -5451,7 +5451,7 @@
         <v>180</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>181</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>182</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
         <v>183</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -5504,7 +5504,7 @@
         <v>195</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -5515,7 +5515,7 @@
         <v>196</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -5526,7 +5526,7 @@
         <v>198</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>200</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
         <v>201</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -5562,7 +5562,7 @@
         <v>203</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -5573,7 +5573,7 @@
         <v>205</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -5584,7 +5584,7 @@
         <v>206</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5595,7 +5595,7 @@
         <v>207</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
         <v>208</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
         <v>209</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
         <v>211</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5650,7 +5650,7 @@
         <v>215</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -5661,7 +5661,7 @@
         <v>217</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5672,7 +5672,7 @@
         <v>218</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -5683,7 +5683,7 @@
         <v>28</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>221</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -5714,7 +5714,7 @@
         <v>222</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5725,7 +5725,7 @@
         <v>224</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -5736,7 +5736,7 @@
         <v>226</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5747,7 +5747,7 @@
         <v>227</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>228</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -5769,7 +5769,7 @@
         <v>229</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>230</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
         <v>78</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -5811,7 +5811,7 @@
         <v>233</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -5822,7 +5822,7 @@
         <v>235</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>13</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>236</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>237</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -5869,7 +5869,7 @@
         <v>87</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
         <v>240</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="165" x14ac:dyDescent="0.2">
@@ -5891,7 +5891,7 @@
         <v>242</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>244</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
         <v>246</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>247</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -5946,7 +5946,7 @@
         <v>248</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -5960,7 +5960,7 @@
         <v>203</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -5971,7 +5971,7 @@
         <v>205</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>251</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -5993,7 +5993,7 @@
         <v>252</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6004,7 +6004,7 @@
         <v>253</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>254</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6026,7 +6026,7 @@
         <v>256</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6037,7 +6037,7 @@
         <v>258</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -6048,7 +6048,7 @@
         <v>259</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -6059,7 +6059,7 @@
         <v>261</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>264</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -6090,7 +6090,7 @@
         <v>213</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -6101,7 +6101,7 @@
         <v>217</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
         <v>28</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>269</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>271</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -6163,7 +6163,7 @@
         <v>274</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>277</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
         <v>278</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>279</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -6227,7 +6227,7 @@
         <v>282</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>67</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>69</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -6260,7 +6260,7 @@
         <v>71</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>73</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
         <v>75</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>78</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
         <v>290</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -6324,7 +6324,7 @@
         <v>292</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>293</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -6346,7 +6346,7 @@
         <v>294</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
         <v>295</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -6368,7 +6368,7 @@
         <v>296</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>87</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6393,7 +6393,7 @@
         <v>299</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>301</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>258</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
         <v>304</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -6440,7 +6440,7 @@
         <v>87</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6451,7 +6451,7 @@
         <v>307</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6462,7 +6462,7 @@
         <v>309</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>258</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>312</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>314</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -6506,7 +6506,7 @@
         <v>316</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -6517,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
         <v>318</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -6539,7 +6539,7 @@
         <v>319</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -6550,7 +6550,7 @@
         <v>320</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>321</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -6572,7 +6572,7 @@
         <v>322</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>124</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>323</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>314</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>316</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>78</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>319</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -6658,7 +6658,7 @@
         <v>318</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -6669,7 +6669,7 @@
         <v>320</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -6680,7 +6680,7 @@
         <v>321</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -6691,7 +6691,7 @@
         <v>322</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -6702,7 +6702,7 @@
         <v>124</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>323</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -6733,7 +6733,7 @@
         <v>330</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="75" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
         <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -6755,7 +6755,7 @@
         <v>333</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -6766,7 +6766,7 @@
         <v>334</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>335</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>336</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>337</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -6810,7 +6810,7 @@
         <v>339</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -6830,7 +6830,7 @@
         <v>342</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="135" x14ac:dyDescent="0.2">
@@ -6841,7 +6841,7 @@
         <v>344</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6852,7 +6852,7 @@
         <v>346</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>347</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -6874,7 +6874,7 @@
         <v>348</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -6885,7 +6885,7 @@
         <v>349</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6896,7 +6896,7 @@
         <v>350</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -6907,7 +6907,7 @@
         <v>351</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>352</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -6929,7 +6929,7 @@
         <v>353</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6940,7 +6940,7 @@
         <v>354</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -6960,7 +6960,7 @@
         <v>357</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -6971,7 +6971,7 @@
         <v>359</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
         <v>360</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>361</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -7004,7 +7004,7 @@
         <v>362</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -7024,7 +7024,7 @@
         <v>365</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -7035,7 +7035,7 @@
         <v>367</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -7046,7 +7046,7 @@
         <v>369</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
         <v>370</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -7068,7 +7068,7 @@
         <v>371</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -7088,7 +7088,7 @@
         <v>374</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -7099,7 +7099,7 @@
         <v>376</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
         <v>378</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>379</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>380</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -7152,7 +7152,7 @@
         <v>383</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -7163,7 +7163,7 @@
         <v>67</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -7174,7 +7174,7 @@
         <v>69</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -7185,7 +7185,7 @@
         <v>71</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -7196,7 +7196,7 @@
         <v>73</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -7207,84 +7207,84 @@
         <v>75</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="330" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>390</v>
+        <v>1086</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="C368" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="C369" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -7292,63 +7292,63 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -7356,90 +7356,90 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C382" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="C383" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -7447,41 +7447,41 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="C391" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -7489,52 +7489,52 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C395" s="1"/>
     </row>
     <row r="396" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C396" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C397" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C398" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="C399" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -7542,41 +7542,41 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="C402" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -7584,41 +7584,41 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C406" s="1"/>
     </row>
     <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="C407" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="C408" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="C409" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -7626,41 +7626,41 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="C412" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -7668,52 +7668,52 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="C417" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="180" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C418" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -7721,255 +7721,255 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="C423" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="C429" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="C431" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -7977,13 +7977,13 @@
     </row>
     <row r="446" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="C446" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -7991,13 +7991,13 @@
     </row>
     <row r="448" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="C448" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -8005,79 +8005,79 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="C456" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -8085,35 +8085,35 @@
     </row>
     <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="C458" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="C459" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -8121,13 +8121,13 @@
     </row>
     <row r="462" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="C462" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -8135,134 +8135,134 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="C466" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="C472" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="C475" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -8270,184 +8270,184 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C477" s="1"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="C478" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="C479" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="C482" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="C483" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="C484" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -8455,140 +8455,140 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C495" s="1"/>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="C497" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="C498" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -8596,63 +8596,63 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C509" s="1"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="C510" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="C511" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -8660,118 +8660,118 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C516" s="1"/>
     </row>
     <row r="517" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="C517" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B519" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="C519" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="C520" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -8779,74 +8779,74 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>547</v>
-      </c>
       <c r="C529" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>550</v>
-      </c>
       <c r="C532" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="C533" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -8854,134 +8854,134 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="C537" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="C544" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="C546" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -8989,63 +8989,63 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="C550" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B551" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="C551" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B552" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="C552" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -9053,41 +9053,41 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B557" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B557" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="C557" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="C558" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -9095,129 +9095,129 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="C563" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B565" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="C565" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B566" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="C566" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -9225,96 +9225,96 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -9322,52 +9322,52 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C584" s="1"/>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B585" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="C585" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -9375,101 +9375,101 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="C591" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B593" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="C593" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -9477,85 +9477,85 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C600" s="1"/>
     </row>
     <row r="601" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B601" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B601" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="C601" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B602" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B602" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="C602" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B605" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="C605" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -9563,52 +9563,52 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C609" s="1"/>
     </row>
     <row r="610" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B610" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B610" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="C610" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B611" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B611" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="C611" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B612" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B612" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="C612" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B613" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B613" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="C613" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -9616,74 +9616,74 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C615" s="1"/>
     </row>
     <row r="616" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B616" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B616" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="C616" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B618" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B618" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="C618" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -9691,96 +9691,96 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C623" s="1"/>
     </row>
     <row r="624" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B624" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B624" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="C624" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B626" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B626" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="C626" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -9788,41 +9788,41 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C633" s="1"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B634" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B634" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C634" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B635" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B635" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="C635" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B636" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -9830,74 +9830,74 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C638" s="1"/>
     </row>
     <row r="639" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B639" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B639" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="C639" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B640" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B640" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="C640" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B641" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B642" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B642" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="C642" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -9905,173 +9905,173 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C646" s="1"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B647" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B647" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="C647" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B648" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B648" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="C648" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B657" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C657" t="s">
         <v>1075</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B658" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C658" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="C658" s="2" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B661" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B662" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C662" t="s">
         <v>1075</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1077</v>
       </c>
     </row>
   </sheetData>
